--- a/experiment/quadratic/ex9_2_3/compare/M-Estacionario/ex9_2_3_M-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_3/compare/M-Estacionario/ex9_2_3_M-Estacionario.xlsx
@@ -494,13 +494,13 @@
         <v>404.5655913299334</v>
       </c>
       <c r="E2">
-        <v>0.0009018</v>
+        <v>0.000789325</v>
       </c>
       <c r="F2">
-        <v>0.01991916</v>
+        <v>0.025914486</v>
       </c>
       <c r="G2">
-        <v>0.0012241589003690037</v>
+        <v>0.001168006057492931</v>
       </c>
       <c r="H2">
         <v>2310</v>
@@ -535,13 +535,13 @@
         <v>404.5655913299335</v>
       </c>
       <c r="E3">
-        <v>0.00257445</v>
+        <v>0.00230124</v>
       </c>
       <c r="F3">
-        <v>0.01060245</v>
+        <v>0.008470922</v>
       </c>
       <c r="G3">
-        <v>0.0031761493511450385</v>
+        <v>0.0031234532765957446</v>
       </c>
       <c r="H3">
         <v>2681</v>
@@ -576,13 +576,13 @@
         <v>404.5655399638108</v>
       </c>
       <c r="E4">
-        <v>0.00726543</v>
+        <v>0.007537581</v>
       </c>
       <c r="F4">
-        <v>0.01189467</v>
+        <v>0.031987987</v>
       </c>
       <c r="G4">
-        <v>0.008170982188841202</v>
+        <v>0.00878768395606327</v>
       </c>
       <c r="H4">
         <v>7502</v>
